--- a/DRAFT-TABLES_FIGURES_4-17-2021/_Main Table 1 FDR sig CpGs in AD vs CN blood samples meta-analysis.xlsx
+++ b/DRAFT-TABLES_FIGURES_4-17-2021/_Main Table 1 FDR sig CpGs in AD vs CN blood samples meta-analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxw391\TBL Dropbox\Lily Wang\AD-meta-analysis-blood-samples\DRAFT-TABLES_FIGURES_4-17-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2B0FDF-9AF0-4488-9322-C5C628373194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C99816E-5806-4418-B274-199F0B20DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11B4F1C9-7E51-49DA-8568-EBB4001B11C3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11B4F1C9-7E51-49DA-8568-EBB4001B11C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> After FDR correciton, 5 CpGs were significant in AD vs. CN blood samples meta-analysis. </t>
+      <t xml:space="preserve"> After FDR correction, 5 CpGs were significant in AD vs. CN blood samples meta-analysis. </t>
     </r>
   </si>
 </sst>
@@ -754,7 +754,7 @@
   <dimension ref="B1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DRAFT-TABLES_FIGURES_4-17-2021/_Main Table 1 FDR sig CpGs in AD vs CN blood samples meta-analysis.xlsx
+++ b/DRAFT-TABLES_FIGURES_4-17-2021/_Main Table 1 FDR sig CpGs in AD vs CN blood samples meta-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxw391\TBL Dropbox\Lily Wang\AD-meta-analysis-blood-samples\DRAFT-TABLES_FIGURES_4-17-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C99816E-5806-4418-B274-199F0B20DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7E2F7E-C8F4-45ED-AA0B-E895E924E6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11B4F1C9-7E51-49DA-8568-EBB4001B11C3}"/>
   </bookViews>
@@ -212,12 +212,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -342,24 +348,6 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,10 +370,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,22 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,15 +397,52 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,332 +760,332 @@
   <dimension ref="B1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="30"/>
-    <col min="4" max="4" width="10.88671875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="30"/>
-    <col min="6" max="6" width="12.33203125" style="30" customWidth="1"/>
-    <col min="7" max="10" width="8.88671875" style="30"/>
-    <col min="11" max="11" width="13.33203125" style="30" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="30"/>
-    <col min="14" max="14" width="13.5546875" style="30" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="30"/>
+    <col min="2" max="2" width="11.77734375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="17"/>
+    <col min="4" max="4" width="10.88671875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="17"/>
+    <col min="6" max="6" width="12.33203125" style="17" customWidth="1"/>
+    <col min="7" max="10" width="8.88671875" style="17"/>
+    <col min="11" max="11" width="13.33203125" style="17" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="17"/>
+    <col min="14" max="14" width="13.5546875" style="17" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="17"/>
     <col min="16" max="16" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="33" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="25" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="15"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="2">
         <v>176978289</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <v>0.94543784726648605</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="4">
         <v>1.1942359226951299E-7</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="4">
         <v>3.6768112702491099E-2</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="3">
         <v>0.92573266573082302</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="4">
         <v>7.4465966516530502E-9</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="3">
         <v>0.97998317686996395</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="14">
         <v>0.24591046089358601</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="2">
         <v>48265917</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <v>0.87353711691219904</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="4">
         <v>1.42730427347442E-7</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="4">
         <v>3.6768112702491099E-2</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="3">
         <v>0.90125738866167804</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="4">
         <v>2.3215701451991199E-3</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="3">
         <v>0.83856952974833998</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="4">
         <v>6.4755765388682398E-6</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="2">
         <v>36810754</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>1.1082781164242399</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="4">
         <v>1.5329329720146299E-7</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="4">
         <v>3.6768112702491099E-2</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="3">
         <v>1.11344605600354</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="4">
         <v>4.7296785752172599E-5</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="3">
         <v>1.1019941439153</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="4">
         <v>8.80757243925775E-4</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="2">
         <v>178784230</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="3">
         <v>0.902835504642578</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="4">
         <v>2.21860055384259E-7</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="4">
         <v>3.9118766323906699E-2</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="3">
         <v>0.92045487425324501</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="4">
         <v>6.2443298337400003E-4</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="3">
         <v>0.86912215248708402</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="4">
         <v>3.6988454663206097E-5</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="12">
         <v>31280802</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="11">
         <v>0.94215776860100997</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="7">
         <v>2.7182270321963497E-7</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="7">
         <v>3.9118766323906699E-2</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="11">
         <v>0.92475408348932198</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="8">
         <v>3.5435693935053797E-5</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="11">
         <v>0.95276686174871805</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="8">
         <v>9.64917385227652E-4</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="10" t="s">
         <v>42</v>
       </c>
     </row>
